--- a/fruit.xlsx
+++ b/fruit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Robots\BlockChairScraping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Robots\New_Blockchain\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>qqj2k7urcaxh9ze2d44zen87nqz0lztvuywlr766y4</t>
   </si>
@@ -35,13 +35,25 @@
     <t>0xc7cb7ee4ba9dfd53073ce16028f5b80d4eaf1991</t>
   </si>
   <si>
-    <t>0x0b380bb759c4f671694f9f2c60c36b8173788585</t>
-  </si>
-  <si>
     <t>0x7ecec863383fba1fd5a1bfe852d2382c2a73ee21</t>
   </si>
   <si>
     <t>0x16e6ecc20ddcbd342d65d16dbbdb114493c86f9e</t>
+  </si>
+  <si>
+    <t>DRmgZSqSaR2PTGaQ5K5TqydPiS1WTqbgG7</t>
+  </si>
+  <si>
+    <t>DRmgZSqSaR2PTGaQ5K5TqydPiS1WTqbgG8</t>
+  </si>
+  <si>
+    <t>DRmgZSqSaR2PTGaQ5K5TqydPiS1WTqbgG9</t>
+  </si>
+  <si>
+    <t>t1TSuRanbiy73BwCCEcH7CNgQLmkCBctcCq</t>
+  </si>
+  <si>
+    <t>LWCbHDyWYTjz8E6K1PkVhXTBEKGdbVHW6z</t>
   </si>
 </sst>
 </file>
@@ -398,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +437,7 @@
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -434,26 +446,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
     </row>
@@ -498,12 +516,6 @@
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fruit.xlsx
+++ b/fruit.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
